--- a/documents/dummy-data-and-outputs.xlsx
+++ b/documents/dummy-data-and-outputs.xlsx
@@ -25,7 +25,7 @@
   <si>
     <t>This spreadsheet contains the following tabs:
 1. input-mentors
-2. input-mentees\
+2. input-mentees
 3. mentors
 4. mentees
 The 'input' tabs are an example of how you might collect your data. It has been formatted to look similar to the outputs you can generate from an online form builder, like Microsoft Forms or Google Forms.
